--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783133.390827452</v>
+        <v>1773935.274241738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492763</v>
+        <v>7709817.850552402</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10379896.07558125</v>
+        <v>10321680.73549501</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.1916196636519</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>360.4840829176713</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.7489988643968</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>149.8260338249025</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.12826197648487</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>280.7548054343443</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>70.08840532298075</v>
+        <v>131.7283476101743</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.1862431834474</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521084</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>178.3839043788241</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>17.91049905836688</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.90320919298899</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>120.680114520859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>102.7826684734056</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>128.8431139798805</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,10 +2056,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>97.27989568773809</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>201.3387670800943</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>146.3037133741913</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>190.4374260065153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.33470865056401</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>91.11971635671392</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>105.3657314403593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>190.5278853151866</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.86209348694715</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3718,16 +3718,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>123.3682062444808</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.08911817509487</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>77.31354443380498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>12.4644487916328</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.223260609829</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.223260609829</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1198.223260609829</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>812.4350080115848</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1857.168914859136</v>
+        <v>1897.103018284391</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1897.103018284391</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1538.83731967764</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1153.049067079396</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>742.0631622897884</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>324.9753805262158</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>75.17723181374777</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>848.189211077104</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1475.496879136951</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2287.242350260202</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2287.242350260202</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2287.242350260202</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2287.242350260202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859136</v>
+        <v>1897.103018284391</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>126.3107125260933</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614628</v>
+        <v>455.7391168319031</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600558</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600558</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782185</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782185</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8329293182748</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1319.932754200924</v>
+        <v>476.4815546438456</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.932754200924</v>
+        <v>476.4815546438456</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.932754200924</v>
+        <v>476.4815546438456</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>476.4815546438456</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>469.5360538946422</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373489</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>468.4264940665504</v>
       </c>
       <c r="L8" t="n">
-        <v>877.9592936548923</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M8" t="n">
-        <v>1064.6587064803</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1691.966374540147</v>
+        <v>1738.603625623769</v>
       </c>
       <c r="O8" t="n">
-        <v>2239.127579307224</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996626</v>
+        <v>2477.000885571629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2670.184741116961</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2470.137684501938</v>
+        <v>2564.090154038249</v>
       </c>
       <c r="U8" t="n">
-        <v>2470.137684501938</v>
+        <v>2310.518027558544</v>
       </c>
       <c r="V8" t="n">
-        <v>2470.137684501938</v>
+        <v>1979.455140214973</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.137684501938</v>
+        <v>1626.686484944859</v>
       </c>
       <c r="X8" t="n">
-        <v>2096.671926240858</v>
+        <v>1253.220726683779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.532594265046</v>
+        <v>863.0813947079674</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>537.8115956207089</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317427</v>
+        <v>845.2309936650809</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988473</v>
+        <v>1223.331799318882</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="C10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="D10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="E10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972704</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972704</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>82.88339090485945</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159742</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282813</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732904</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606355</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1168.965271802901</v>
       </c>
       <c r="U10" t="n">
-        <v>634.2475255767915</v>
+        <v>879.849666761093</v>
       </c>
       <c r="V10" t="n">
-        <v>454.0617635779793</v>
+        <v>625.1651785552061</v>
       </c>
       <c r="W10" t="n">
-        <v>454.0617635779793</v>
+        <v>607.0737653649365</v>
       </c>
       <c r="X10" t="n">
-        <v>226.072212679962</v>
+        <v>379.0842144669192</v>
       </c>
       <c r="Y10" t="n">
-        <v>226.072212679962</v>
+        <v>158.2916353233891</v>
       </c>
     </row>
     <row r="11">
@@ -5039,28 +5039,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.0033510423848</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>343.0033510423848</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>192.886711630049</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>192.886711630049</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F13" t="n">
-        <v>192.886711630049</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.058536807602</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>752.6413667706419</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>524.6518158726245</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>524.6518158726245</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>806.1613418786371</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1670.680157531992</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M14" t="n">
-        <v>2649.23046036182</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839441</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1762.692131616368</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1540.925516185894</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1251.822649311537</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>997.1381611056502</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>707.7209910686896</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1729.091615892342</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2707.641918722171</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3254.420735780953</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>935.6537883236062</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C19" t="n">
-        <v>935.6537883236062</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>785.5371489112705</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>637.6240553288774</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>490.734107830967</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>323.0312712056859</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1937.890136708704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1746.20425253553</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1524.437637105056</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1235.3347702307</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258584</v>
+        <v>980.6502820248129</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.643339221624</v>
+        <v>691.2331119878522</v>
       </c>
       <c r="X19" t="n">
-        <v>935.6537883236062</v>
+        <v>463.2435610898349</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.6537883236062</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763013</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1768.250487965527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1546.483872535053</v>
+        <v>1752.970974104609</v>
       </c>
       <c r="U22" t="n">
-        <v>1257.381005660696</v>
+        <v>1463.868107230252</v>
       </c>
       <c r="V22" t="n">
-        <v>1002.696517454809</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="W22" t="n">
-        <v>713.2793474178487</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="X22" t="n">
-        <v>485.2897965198314</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y22" t="n">
-        <v>264.4972173763013</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,13 +5972,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,25 +5987,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6097761177758</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6097761177758</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="F25" t="n">
         <v>506.8067350374723</v>
@@ -6175,22 +6175,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1527.045596028259</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1237.942729153903</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>983.2582409480156</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>983.2582409480156</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>983.2582409480156</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.2582409480156</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>806.7425750505952</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7425750505952</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.7425750505952</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6479,34 +6479,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6537,43 +6537,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.9312815832557</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>329.9950986553488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>329.9950986553488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>329.9950986553488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>329.9950986553488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>329.9950986553488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>183.7779118732066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>901.3723255570255</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>680.5797464134954</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6701,10 +6701,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M32" t="n">
         <v>2216.257005193956</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3624.551378735418</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C34" t="n">
-        <v>3455.615195807511</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="D34" t="n">
-        <v>3455.615195807511</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="E34" t="n">
-        <v>3307.702102225118</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="F34" t="n">
-        <v>3160.812154727208</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>187.6011519804287</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>3624.551378735418</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>3624.551378735418</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>3624.551378735418</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3384.235206686047</v>
+        <v>3858.203957510972</v>
       </c>
       <c r="C37" t="n">
-        <v>3215.29902375814</v>
+        <v>3689.267774583066</v>
       </c>
       <c r="D37" t="n">
-        <v>3065.182384345804</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I37" t="n">
         <v>2917.269290763411</v>
@@ -7117,28 +7117,28 @@
         <v>4778.05172241972</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T37" t="n">
-        <v>4496.535381004074</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U37" t="n">
-        <v>4496.535381004074</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="V37" t="n">
-        <v>4304.082971594795</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="W37" t="n">
-        <v>4014.665801557834</v>
+        <v>4488.634552382759</v>
       </c>
       <c r="X37" t="n">
-        <v>3786.676250659817</v>
+        <v>4260.645001484742</v>
       </c>
       <c r="Y37" t="n">
-        <v>3565.883671516287</v>
+        <v>4039.852422341212</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7181,13 +7181,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107236</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E40" t="n">
         <v>653.6966825353827</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X40" t="n">
-        <v>1163.957642384228</v>
+        <v>874.4892616789128</v>
       </c>
       <c r="Y40" t="n">
-        <v>1163.957642384228</v>
+        <v>653.6966825353827</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,7 +7394,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
@@ -7445,16 +7445,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>360.5895482553301</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C43" t="n">
-        <v>360.5895482553301</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D43" t="n">
-        <v>360.5895482553301</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E43" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
         <v>192.886711630049</v>
@@ -7591,28 +7591,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X43" t="n">
-        <v>619.8559841413803</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.0634049978502</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7688,10 +7688,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,16 +7743,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3314.416602430729</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C46" t="n">
-        <v>3145.480419502822</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D46" t="n">
-        <v>2995.363780090487</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>2917.269290763411</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>2917.269290763411</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4778.05172241972</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>4488.948855545364</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>4234.264367339477</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="W46" t="n">
-        <v>3944.847197302516</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="X46" t="n">
-        <v>3716.857646404499</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y46" t="n">
-        <v>3496.065067260969</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>368.1017737597001</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270198</v>
+        <v>79.33192306650291</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028836</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>315.4576428685614</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>97.95619053890789</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517903</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478233</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393203</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>189.7998007892634</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855133</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>342.3170758598123</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>314.5564971416979</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,16 +10829,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>77.35795430877036</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>11.64153443578709</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>131.457528802969</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86.98635685803627</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>15.91190093444027</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>70.66335656800726</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>92.48912964370381</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>18.21018219607492</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>33.50229141006236</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>73.24523590197794</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>96.08557233007573</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>9.017711759274079</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>53.63529855760686</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>181.1572668962318</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.32522828944177</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25369,7 +25369,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>61.60975800864139</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>136.9698866949902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>102.3414491445564</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.7428620068424</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>224.1160184721234</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>69.12041821276419</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26071,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>239.6731945321952</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>953483.1788865192</v>
+        <v>931092.273073997</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>931092.273073997</v>
+        <v>891413.1032817486</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881494.7672302295</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="E2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974272</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="H2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="I2" t="n">
         <v>536060.4122974279</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974278</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>536060.4122974279</v>
+      </c>
+      <c r="L2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="M2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="N2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="I2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="M2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536060.4122974279</v>
-      </c>
       <c r="O2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481118</v>
+        <v>315238.238451306</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431701</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317166</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084677</v>
+        <v>95586.42776879415</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326450.3168600505</v>
+        <v>-328546.178082596</v>
       </c>
       <c r="C6" t="n">
-        <v>263517.562354494</v>
+        <v>93927.78578963014</v>
       </c>
       <c r="D6" t="n">
-        <v>107051.5199982501</v>
+        <v>21761.36670657445</v>
       </c>
       <c r="E6" t="n">
-        <v>-142120.9756749867</v>
+        <v>152783.0964476481</v>
       </c>
       <c r="F6" t="n">
-        <v>411936.3519415174</v>
+        <v>411115.0546908178</v>
       </c>
       <c r="G6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.054690818</v>
       </c>
       <c r="H6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.054690818</v>
       </c>
       <c r="I6" t="n">
-        <v>411936.3519415171</v>
+        <v>411115.0546908185</v>
       </c>
       <c r="J6" t="n">
-        <v>235513.1327489246</v>
+        <v>234691.8354982253</v>
       </c>
       <c r="K6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908185</v>
       </c>
       <c r="L6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908182</v>
       </c>
       <c r="M6" t="n">
-        <v>282294.0371025726</v>
+        <v>281472.7398518735</v>
       </c>
       <c r="N6" t="n">
-        <v>411936.3519415176</v>
+        <v>411115.0546908183</v>
       </c>
       <c r="O6" t="n">
-        <v>411936.3519415174</v>
+        <v>411115.0546908182</v>
       </c>
       <c r="P6" t="n">
-        <v>411936.3519415173</v>
+        <v>411115.0546908182</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980346</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209787</v>
+        <v>368.0909448599696</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.6844260780595</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014705</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>258.5238929066107</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>165.214850250313</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>5.527068807633441</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>142.5634577919853</v>
+        <v>74.44585475655242</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>73.75373894500387</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>268.6124992782241</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998741</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206099</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411438</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717141</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105705</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047169</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728055</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333021</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861148</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.92164719740461</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280109</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590635</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796768</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363778</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691388</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329288</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905496</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609225</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342645</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173925</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781748</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073723</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195865</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279936</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,13 +34214,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>556.6870392399098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>73.09871788457454</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932201</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.6284766961632</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017268</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832978</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.334923508126</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511187</v>
       </c>
       <c r="P8" t="n">
-        <v>427.3104966559619</v>
+        <v>324.6445642780325</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215476</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198267</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>294.0960148009267</v>
       </c>
       <c r="L9" t="n">
-        <v>212.6331008565871</v>
+        <v>310.5246444892646</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>381.9200057109105</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545554</v>
+        <v>406.5824786072163</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164781</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>334.1091672672201</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898484</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692129</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,16 +35422,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9910873446639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778455</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>797.9071902521445</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610698</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37069,13 +37069,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37549,16 +37549,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894835</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>328.1522591124898</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37862,13 +37862,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>410.403520655159</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1881450.768689676</v>
+        <v>1877145.052313605</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>56.31449141872268</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9086634660089</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.5264354350416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.9053712971579</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>167.0119185991424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>26.84313676954766</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.76943124013382</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>135.4684761590174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>155.2435806730865</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000758</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.069540131684477</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>199.5546238714595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>23.62554568141315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>28.7518808581174</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>39.39795577638957</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.5745801383492</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.009682740596</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>139.6152205166461</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1391.972039273389</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="C2" t="n">
-        <v>1023.009522332977</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>664.743823726227</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>664.743823726227</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1391.972039273389</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117851</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303754</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.855211652197</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>982.8866731097551</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>613.9241561693434</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>255.6584575625929</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374774</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>661.489798251695</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771026</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.496879136949</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2372.235145839149</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.235145839149</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>1998.769387578069</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="Y8" t="n">
-        <v>1608.630055602257</v>
+        <v>1369.486513173877</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>377.4396513563111</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1017.985000823416</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1685.529400850426</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2234.965409603149</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>267.8680320728336</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>98.9318491449267</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>98.9318491449267</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>98.9318491449267</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972705</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972705</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972705</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972705</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>557.2852021097942</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>267.8680320728336</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>267.8680320728336</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>267.8680320728336</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.549009249638</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212678</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711303</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797713</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.7594328861248</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2023.366912656562</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.29168600076</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1479.607197794873</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.190027757912</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>962.2004768598947</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.4078977163646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3913.540429875246</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3624.123259838286</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3396.133708940269</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3175.341129796739</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830887</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3940.136393265825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4492.046123505113</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400685</v>
+        <v>1056.376371837086</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400685</v>
+        <v>887.4401889091791</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400685</v>
+        <v>737.3235494968434</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400685</v>
+        <v>589.4104559144503</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>442.5205084165399</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>275.3244091314198</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>133.6125779736179</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782923</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003831</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797713</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.91737983266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854703</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648816</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611856</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138384</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703082</v>
+        <v>1238.024836667326</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.4413279836774</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C37" t="n">
-        <v>464.5051450557705</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2316.650272731174</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2097.048807754114</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1807.973581098312</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1553.289092892425</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1263.871922855465</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.882371957447</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y37" t="n">
-        <v>815.0897928139171</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>920.6398131926233</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>43.95636118853395</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784512</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>62.54499603078654</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.048100336096456e-12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>70.46607471595064</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891683</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>48.3947522799763</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.5151132204103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>52.58301945236855</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.6212754172147</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648138</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.86788054217597</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.04089287986316</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>52.0166032610486</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>9.000252501566251</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808065</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682707</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682697</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682719</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682718</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682697</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682697</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.178082596</v>
+        <v>-328546.1780825962</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319481</v>
+        <v>261421.7011319482</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381538</v>
+        <v>105617.8950381534</v>
       </c>
       <c r="E6" t="n">
-        <v>-333028.8029806418</v>
+        <v>-333376.1822349993</v>
       </c>
       <c r="F6" t="n">
-        <v>438023.8884001644</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="G6" t="n">
-        <v>438023.888400164</v>
+        <v>437676.5091458074</v>
       </c>
       <c r="H6" t="n">
-        <v>438023.8884001639</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="I6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458074</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.6692075711</v>
+        <v>261253.2899532139</v>
       </c>
       <c r="K6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="L6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.5091458071</v>
       </c>
       <c r="M6" t="n">
-        <v>313815.3776921059</v>
+        <v>313467.9984377486</v>
       </c>
       <c r="N6" t="n">
-        <v>438023.8884001638</v>
+        <v>437676.5091458073</v>
       </c>
       <c r="O6" t="n">
-        <v>438023.888400164</v>
+        <v>437676.509145807</v>
       </c>
       <c r="P6" t="n">
-        <v>438023.8884001643</v>
+        <v>437676.5091458075</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -26977,25 +26977,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>308.9584003522849</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>215.9673822757026</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>166.0457989735916</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.2729339837166</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>119.711503221012</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.0249987751039</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>160.7403398709925</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>118.5779112533836</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>105.4971266392832</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>509.0826837242969</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>334.769386094614</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200301</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>184.6923771897998</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645771</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>172.3324985836136</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L14" t="n">
         <v>632.079992146269</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191281</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>377.7409716409636</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802838</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326294995</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366968</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1877145.052313605</v>
+        <v>1878905.582616391</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>56.31449141872268</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>89.00389277357158</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.99995778729098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>179.9053712971579</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>61.51966780633834</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.76943124013382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>143.2091541404069</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>155.2435806730865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>20.25102067617318</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.7621441121407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>35.99871774582764</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>91.89996056624759</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>39.39795577638957</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.5745801383492</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1683.829970582156</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E2" t="n">
         <v>882.8926947117852</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.829970582156</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1683.829970582156</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
         <v>2107.607341885688</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.8866731097551</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C8" t="n">
-        <v>613.9241561693434</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="D8" t="n">
-        <v>255.6584575625929</v>
+        <v>1231.081333027968</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>845.2930804297234</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>434.3071756401159</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2290.483082123151</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.625845149689</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.486513173877</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.529400850426</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2234.965409603149</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>89.76649002430668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5038,31 +5038,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5126,7 +5126,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5281,19 +5281,19 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5594,25 +5594,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>988.1395539230176</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>819.2033709951107</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>669.086731582775</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420919</v>
+        <v>521.1736380003819</v>
       </c>
       <c r="F22" t="n">
-        <v>186.6449060441816</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6449060441816</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1056.376371837086</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>887.4401889091791</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>737.3235494968434</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>589.4104559144503</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>442.5205084165399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>275.3244091314198</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>133.6125779736179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1238.024836667326</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1053.171308869725</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C37" t="n">
-        <v>884.2351259418183</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.612352843495</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.819773699965</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7268,10 +7268,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7742,10 +7742,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>91.69549323938426</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>62.54499603078654</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.048100336096456e-12</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>74.19629618688137</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.46607471595064</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.9958004224547</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>109.4223302771034</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>109.4223302771036</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3947522799763</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4.845153664064696</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,16 +24888,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.86788054217597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.04089287986316</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>544823.954790754</v>
@@ -26328,10 +26328,10 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907542</v>
@@ -26340,22 +26340,22 @@
         <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26450,13 +26450,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825962</v>
+        <v>-328546.1780825958</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319482</v>
+        <v>261421.7011319483</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381534</v>
+        <v>105617.8950381537</v>
       </c>
       <c r="E6" t="n">
-        <v>-333376.1822349993</v>
+        <v>-333063.5409060779</v>
       </c>
       <c r="F6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="G6" t="n">
-        <v>437676.5091458074</v>
+        <v>437989.1504747284</v>
       </c>
       <c r="H6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747288</v>
       </c>
       <c r="I6" t="n">
-        <v>437676.5091458074</v>
+        <v>437989.1504747287</v>
       </c>
       <c r="J6" t="n">
-        <v>261253.2899532139</v>
+        <v>261565.9312821354</v>
       </c>
       <c r="K6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="L6" t="n">
-        <v>437676.5091458071</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="M6" t="n">
-        <v>313467.9984377486</v>
+        <v>313780.6397666698</v>
       </c>
       <c r="N6" t="n">
-        <v>437676.5091458073</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="O6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747281</v>
       </c>
       <c r="P6" t="n">
-        <v>437676.5091458075</v>
+        <v>437989.1504747284</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>308.9584003522849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>292.9264772986902</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>166.0457989735916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>338.2729339837166</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.52067551358144</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>202.0249987751039</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>351.3972361395984</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27909,13 +27909,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>105.4971266392832</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>509.0826837242969</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>263.5833975999494</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>172.3324985836136</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
         <v>632.079992146269</v>
@@ -35664,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>377.7409716409636</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37089,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
